--- a/ExcelData/CityNames.xlsx
+++ b/ExcelData/CityNames.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2457259_cognizant_com/Documents/Desktop/FindingHospitals/ExcelData/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_14DD0DA043F29ED5BE8A424EBA6322FF4726DE49" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20C54E86-51B3-449B-B0A9-55AE0415F3F3}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CityNames" sheetId="1" r:id="rId1"/>
+    <sheet name="CityNames" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -322,12 +314,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -337,7 +330,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -355,844 +348,513 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:A99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" t="s" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" t="s" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" t="s" s="0">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" t="s" s="0">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" t="s" s="0">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" t="s" s="0">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" t="s" s="0">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" t="s" s="0">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" t="s" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" t="s" s="0">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" t="s" s="0">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" t="s" s="0">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" t="s" s="0">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34">
+      <c r="A34" t="s" s="0">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35">
+      <c r="A35" t="s" s="0">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36">
+      <c r="A36" t="s" s="0">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37">
+      <c r="A37" t="s" s="0">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38">
+      <c r="A38" t="s" s="0">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="39">
+      <c r="A39" t="s" s="0">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="40">
+      <c r="A40" t="s" s="0">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41">
+      <c r="A41" t="s" s="0">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="42">
+      <c r="A42" t="s" s="0">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="43">
+      <c r="A43" t="s" s="0">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44">
+      <c r="A44" t="s" s="0">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="45">
+      <c r="A45" t="s" s="0">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="46">
+      <c r="A46" t="s" s="0">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="47">
+      <c r="A47" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="48">
+      <c r="A48" t="s" s="0">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="49">
+      <c r="A49" t="s" s="0">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="50">
+      <c r="A50" t="s" s="0">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="51">
+      <c r="A51" t="s" s="0">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="52">
+      <c r="A52" t="s" s="0">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="53">
+      <c r="A53" t="s" s="0">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="54">
+      <c r="A54" t="s" s="0">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="55">
+      <c r="A55" t="s" s="0">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="56">
+      <c r="A56" t="s" s="0">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="57">
+      <c r="A57" t="s" s="0">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="58">
+      <c r="A58" t="s" s="0">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="59">
+      <c r="A59" t="s" s="0">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="60">
+      <c r="A60" t="s" s="0">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="61">
+      <c r="A61" t="s" s="0">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="62">
+      <c r="A62" t="s" s="0">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="63">
+      <c r="A63" t="s" s="0">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="64">
+      <c r="A64" t="s" s="0">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="65">
+      <c r="A65" t="s" s="0">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="66">
+      <c r="A66" t="s" s="0">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="67">
+      <c r="A67" t="s" s="0">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="68">
+      <c r="A68" t="s" s="0">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="69">
+      <c r="A69" t="s" s="0">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="70">
+      <c r="A70" t="s" s="0">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="71">
+      <c r="A71" t="s" s="0">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="72">
+      <c r="A72" t="s" s="0">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="73">
+      <c r="A73" t="s" s="0">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="74">
+      <c r="A74" t="s" s="0">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="75">
+      <c r="A75" t="s" s="0">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="76">
+      <c r="A76" t="s" s="0">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    <row r="77">
+      <c r="A77" t="s" s="0">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="78">
+      <c r="A78" t="s" s="0">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="79">
+      <c r="A79" t="s" s="0">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="80">
+      <c r="A80" t="s" s="0">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="81">
+      <c r="A81" t="s" s="0">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="82">
+      <c r="A82" t="s" s="0">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="83">
+      <c r="A83" t="s" s="0">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="84">
+      <c r="A84" t="s" s="0">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="85">
+      <c r="A85" t="s" s="0">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="86">
+      <c r="A86" t="s" s="0">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="87">
+      <c r="A87" t="s" s="0">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="89">
+      <c r="A89" t="s" s="0">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="90">
+      <c r="A90" t="s" s="0">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="91">
+      <c r="A91" t="s" s="0">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="92">
+      <c r="A92" t="s" s="0">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="93">
+      <c r="A93" t="s" s="0">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="94">
+      <c r="A94" t="s" s="0">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="95">
+      <c r="A95" t="s" s="0">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="96">
+      <c r="A96" t="s" s="0">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+    <row r="97">
+      <c r="A97" t="s" s="0">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+    <row r="98">
+      <c r="A98" t="s" s="0">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="99">
+      <c r="A99" t="s" s="0">
         <v>98</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>